--- a/stat_tests/b3b1_nara_corr_data.xlsx
+++ b/stat_tests/b3b1_nara_corr_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasminebassil/Documents/Emory/3_Research/Projects/CogMap_Paper/stat_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F13139DD-B4C4-0446-B3E7-69E5D544769F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{66F6939F-C9A9-C74B-AAA9-2154C82DDDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15760"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="b3b1_nara_corr_data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="80" uniqueCount="56">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="66" uniqueCount="42">
   <si>
     <t>statistic</t>
   </si>
@@ -60,154 +60,112 @@
     <t>data.name</t>
   </si>
   <si>
-    <t>conf.int</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
-    <t>c(t = -2.18527893832396)</t>
-  </si>
-  <si>
-    <t>c(df = 24)</t>
-  </si>
-  <si>
-    <t>c(cor = -0.407376397235162)</t>
-  </si>
-  <si>
-    <t>c(correlation = 0)</t>
+    <t>c(S = 3451.70446022306)</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>c(rho = -0.18006990093096)</t>
+  </si>
+  <si>
+    <t>c(rho = 0)</t>
   </si>
   <si>
     <t>two.sided</t>
   </si>
   <si>
-    <t>Pearson's product-moment correlation</t>
-  </si>
-  <si>
-    <t>all_blocks$Total_Time and all_blocks$NARA</t>
-  </si>
-  <si>
-    <t>c(-0.686413614908123</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.0237763140183263)</t>
+    <t>Spearman's rank correlation rho</t>
+  </si>
+  <si>
+    <t>change$Total_Time and change$NARA</t>
   </si>
   <si>
     <t>corr_change_ct</t>
   </si>
   <si>
-    <t>c(t = -2.24533031290848)</t>
-  </si>
-  <si>
-    <t>c(cor = -0.416649299631444)</t>
-  </si>
-  <si>
-    <t>all_blocks$Navigation_Time and all_blocks$NARA</t>
-  </si>
-  <si>
-    <t>c(-0.692275030810334</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.0349356169434849)</t>
+    <t>c(S = 3420.48488418689)</t>
+  </si>
+  <si>
+    <t>c(rho = -0.169396541602356)</t>
+  </si>
+  <si>
+    <t>change$Navigation_Time and change$NARA</t>
   </si>
   <si>
     <t>corr_change_ctnav</t>
   </si>
   <si>
-    <t>c(t = -0.283750000649687)</t>
-  </si>
-  <si>
-    <t>c(cor = -0.0578233160910416)</t>
-  </si>
-  <si>
-    <t>all_blocks$Orientation_Time and all_blocks$NARA</t>
-  </si>
-  <si>
-    <t>c(-0.435422669537093</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.337078498115388)</t>
+    <t>c(S = 3780.01355015177)</t>
+  </si>
+  <si>
+    <t>c(rho = -0.292312324838212)</t>
+  </si>
+  <si>
+    <t>change$Orientation_Time and change$NARA</t>
   </si>
   <si>
     <t>corr_change_ctori</t>
   </si>
   <si>
-    <t>c(t = -3.16432528036011)</t>
-  </si>
-  <si>
-    <t>c(cor = -0.542573954188741)</t>
-  </si>
-  <si>
-    <t>all_blocks$Distance and all_blocks$NARA</t>
-  </si>
-  <si>
-    <t>c(-0.768427693763987</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.196525125768819)</t>
+    <t>c(S = 3827.34645575499)</t>
+  </si>
+  <si>
+    <t>c(rho = -0.308494514788031)</t>
+  </si>
+  <si>
+    <t>change$Distance and change$NARA</t>
   </si>
   <si>
     <t>corr_change_dt</t>
   </si>
   <si>
-    <t>c(t = -0.651187628413066)</t>
-  </si>
-  <si>
-    <t>c(cor = -0.131764173545448)</t>
-  </si>
-  <si>
-    <t>all_blocks$Mean_Dwell and all_blocks$NARA</t>
-  </si>
-  <si>
-    <t>c(-0.493907513477172</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.269334350382969)</t>
+    <t>c(S = 3752.82230650737)</t>
+  </si>
+  <si>
+    <t>c(rho = -0.283016173164912)</t>
+  </si>
+  <si>
+    <t>change$Mean_Dwell and change$NARA</t>
   </si>
   <si>
     <t>corr_change_dwell</t>
   </si>
   <si>
-    <t>c(t = 2.21701639692342)</t>
-  </si>
-  <si>
-    <t>c(cor = 0.412293124491109)</t>
-  </si>
-  <si>
-    <t>all_blocks$Speed and all_blocks$NARA</t>
-  </si>
-  <si>
-    <t>c(0.0296813769041439</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.689526007754891)</t>
+    <t>c(S = 773.870502798372)</t>
+  </si>
+  <si>
+    <t>c(rho = 0.735428887932181)</t>
+  </si>
+  <si>
+    <t>change$Speed and change$NARA</t>
   </si>
   <si>
     <t>corr_change_speed</t>
   </si>
   <si>
-    <t>c(t = -2.66957844721169)</t>
-  </si>
-  <si>
-    <t>c(cor = -0.478494006857382)</t>
-  </si>
-  <si>
-    <t>all_blocks$Teleportations and all_blocks$NARA</t>
-  </si>
-  <si>
-    <t>c(-0.73045866067542</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.111878197506155)</t>
+    <t>c(S = 3992.50808381729)</t>
+  </si>
+  <si>
+    <t>c(rho = -0.364960028655483)</t>
+  </si>
+  <si>
+    <t>change$Teleportations and change$NARA</t>
   </si>
   <si>
     <t>corr_change_teleport</t>
+  </si>
+  <si>
+    <t>p.avlue.adj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -685,8 +643,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1041,29 +1000,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1074,270 +1020,256 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0.37872408620264703</v>
+      </c>
+      <c r="D2">
+        <f>C2*7</f>
+        <v>2.6510686034185293</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>3.8863015866226203E-2</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3">
+        <v>0.40807871899150999</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D8" si="0">C3*7</f>
+        <v>2.8565510329405699</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="I3" t="s">
         <v>19</v>
       </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>3.4227079624851199E-2</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0.14731740892846201</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1.0312218624992342</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="I4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J4" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0.12519376510671801</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.87635635574702608</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>0.779035469603368</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0.16122390206166201</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1.1285673144316342</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H6" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="I6" t="s">
         <v>31</v>
       </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>4.1865812553071704E-3</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.8660237897652801E-5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1.3062166528356962E-4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H7" t="s">
         <v>14</v>
       </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="I7" t="s">
         <v>35</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J7" t="s">
         <v>36</v>
       </c>
-      <c r="K5" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>6.6767602903102893E-2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.46737322032172024</v>
+      </c>
+      <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>0.52111224378457399</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="J8" t="s">
         <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>3.6346529520641498E-2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>1.34081901438935E-2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
